--- a/UC10/Dicionario de dados.xlsx
+++ b/UC10/Dicionario de dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEDRO.lhjunior\Documents\T16\UC10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A17FA314-0AD0-4AA3-BB17-3509D98EBA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A52826-5E12-400E-9EB1-7B13834299DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C42A93F2-DF40-4849-B98A-85C1D9D2ABD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{C42A93F2-DF40-4849-B98A-85C1D9D2ABD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="67">
   <si>
     <t>Produto</t>
   </si>
@@ -171,6 +171,72 @@
   </si>
   <si>
     <t>status_itemCompra</t>
+  </si>
+  <si>
+    <t>chave</t>
+  </si>
+  <si>
+    <t>tipo/tamanho</t>
+  </si>
+  <si>
+    <t>requerido</t>
+  </si>
+  <si>
+    <t>regra</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>default 'ATIVO'</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>smalldatetime</t>
+  </si>
+  <si>
+    <t>char(18)</t>
+  </si>
+  <si>
+    <t>char(2)</t>
+  </si>
+  <si>
+    <t>char(9)</t>
+  </si>
+  <si>
+    <t>char(15)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,53 +291,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -282,13 +311,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,244 +652,713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0B2A82-9B8A-449A-A1AE-D7636A5F444D}">
-  <dimension ref="B1:B51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+      <c r="C46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+      <c r="C47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="C48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
